--- a/vaadin-spreadsheet/src/test/resources/test_sheets/hyper_links.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/hyper_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregWoolsey\git\spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E733BCB9-9EA4-4C3A-AF6D-408DA7C4BB85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A341078-382A-41D5-B58F-5664FB60FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -115,7 +121,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,10 +462,10 @@
   <dimension ref="B1:AO164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -580,7 +586,7 @@
       <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -611,7 +617,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -636,7 +642,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3">
